--- a/03-Desarrollo/2- Tesis Universitaria/3- Documentos de Word/Cronograma_Corregido_Subtareas borron 3.xlsx
+++ b/03-Desarrollo/2- Tesis Universitaria/3- Documentos de Word/Cronograma_Corregido_Subtareas borron 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\linuxknowledge\03-Desarrollo\2- Tesis Universitaria\3- Documentos de Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A227EC-2735-47EB-95B7-0600E24EC747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D98472-C4A8-49C3-9EEB-6A6E433D21D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -43,97 +43,34 @@
     <t>Fase 1: Análisis</t>
   </si>
   <si>
-    <t>Levantamiento de Requisitos</t>
-  </si>
-  <si>
-    <t>Análisis de Requisitos</t>
-  </si>
-  <si>
     <t>Fase 2: Diseño</t>
   </si>
   <si>
-    <t>Diseño de base de datos</t>
-  </si>
-  <si>
-    <t>Prototipos de interfaz</t>
-  </si>
-  <si>
-    <t>Ajustes diseño final</t>
-  </si>
-  <si>
     <t>Fase 3: Desarrollo</t>
   </si>
   <si>
-    <t>Desarrollo del frontend</t>
-  </si>
-  <si>
-    <t>Desarrollo del backend</t>
-  </si>
-  <si>
-    <t>Pruebas internas</t>
-  </si>
-  <si>
     <t>Fase 4: Seguridad</t>
   </si>
   <si>
-    <t>Autenticación</t>
-  </si>
-  <si>
-    <t>Pruebas de vulnerabilidades</t>
-  </si>
-  <si>
     <t>Fase 5: Pruebas y Config.</t>
   </si>
   <si>
-    <t>Pruebas de funcionamiento</t>
-  </si>
-  <si>
-    <t>Corrección de errores</t>
-  </si>
-  <si>
     <t>Fase 6: Configuración</t>
   </si>
   <si>
-    <t>Configuración del servidor</t>
-  </si>
-  <si>
-    <t>Configuración del hosting</t>
-  </si>
-  <si>
     <t>Fase 7: Capacitación</t>
   </si>
   <si>
-    <t>Capacitación de personal</t>
-  </si>
-  <si>
-    <t>Soporte técnico inicial</t>
-  </si>
-  <si>
     <t>Fase 8: Cierre</t>
   </si>
   <si>
-    <t>Publicación oficial</t>
-  </si>
-  <si>
-    <t>Entrega final</t>
-  </si>
-  <si>
     <t>Fase 9: Contingencias</t>
   </si>
   <si>
-    <t>Ajustes finales</t>
-  </si>
-  <si>
-    <t>Entrega con mejoras</t>
-  </si>
-  <si>
     <t>7d</t>
   </si>
   <si>
     <t>5d</t>
-  </si>
-  <si>
-    <t>3d</t>
   </si>
   <si>
     <t>14d</t>
@@ -517,9 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -563,7 +502,7 @@
         <v>45768</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -571,7 +510,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -580,552 +519,152 @@
         <v>45769</v>
       </c>
       <c r="D3" s="2">
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>45774</v>
+        <v>45783</v>
       </c>
       <c r="D4" s="2">
-        <v>45776</v>
+        <v>45822</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45769</v>
+        <v>45825</v>
       </c>
       <c r="D5" s="2">
-        <v>45782</v>
+        <v>45834</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>45784</v>
+        <v>45839</v>
       </c>
       <c r="D6" s="2">
-        <v>45788</v>
+        <v>45848</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>45789</v>
+        <v>45853</v>
       </c>
       <c r="D7" s="2">
-        <v>45791</v>
+        <v>45857</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2.2999999999999998</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>45792</v>
+        <v>45860</v>
       </c>
       <c r="D8" s="2">
-        <v>45796</v>
+        <v>45879</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>45783</v>
+        <v>45874</v>
       </c>
       <c r="D9" s="2">
-        <v>45822</v>
+        <v>45878</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>45804</v>
+        <v>45881</v>
       </c>
       <c r="D10" s="2">
-        <v>45808</v>
+        <v>45890</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3.2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45809</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45811</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3.3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45812</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45816</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45825</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45834</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45824</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45828</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4.2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45829</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45831</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45839</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45848</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45839</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45843</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5.2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45844</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45846</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45853</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45857</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>6.1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45854</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45858</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6.2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45859</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45861</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2">
-        <v>45860</v>
-      </c>
-      <c r="D22" s="2">
-        <v>45879</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>7.1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2">
-        <v>45869</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45873</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>7.2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45874</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45876</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2">
-        <v>45874</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45878</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>8.1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45884</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45888</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45889</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45891</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2">
-        <v>45881</v>
-      </c>
-      <c r="D28" s="2">
-        <v>45890</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>9.1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2">
-        <v>45899</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45903</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2">
-        <v>45904</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45906</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30">
         <v>8</v>
       </c>
     </row>
